--- a/data/pca/factorExposure/factorExposure_2016-05-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01064622181818708</v>
+        <v>0.01338640178200263</v>
       </c>
       <c r="C2">
-        <v>-0.05208333622336076</v>
+        <v>0.03757245811940432</v>
       </c>
       <c r="D2">
-        <v>0.04137693137559841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05500395245468571</v>
+      </c>
+      <c r="E2">
+        <v>0.08669782786648077</v>
+      </c>
+      <c r="F2">
+        <v>-0.08490390839896132</v>
+      </c>
+      <c r="G2">
+        <v>0.003261349848206391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03972562661564246</v>
+        <v>0.02503221459696686</v>
       </c>
       <c r="C3">
-        <v>-0.1196552196397616</v>
+        <v>0.06933422298786246</v>
       </c>
       <c r="D3">
-        <v>0.09461704276433583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07310591173157525</v>
+      </c>
+      <c r="E3">
+        <v>0.06668052620013677</v>
+      </c>
+      <c r="F3">
+        <v>0.02270670598295817</v>
+      </c>
+      <c r="G3">
+        <v>0.04365671140239881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05860436031591323</v>
+        <v>0.0570221764315214</v>
       </c>
       <c r="C4">
-        <v>-0.06165545642730209</v>
+        <v>0.06485277083485032</v>
       </c>
       <c r="D4">
-        <v>0.02720026892789805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05028573151943486</v>
+      </c>
+      <c r="E4">
+        <v>0.08333080880556051</v>
+      </c>
+      <c r="F4">
+        <v>-0.06043716048608149</v>
+      </c>
+      <c r="G4">
+        <v>0.07690336465141984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03940315939150425</v>
+        <v>0.03490550945781451</v>
       </c>
       <c r="C6">
-        <v>-0.03745451750641081</v>
+        <v>0.0289149454273104</v>
       </c>
       <c r="D6">
-        <v>0.03219008521346584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05835019861612335</v>
+      </c>
+      <c r="E6">
+        <v>0.08723676932919933</v>
+      </c>
+      <c r="F6">
+        <v>-0.04645964715457743</v>
+      </c>
+      <c r="G6">
+        <v>0.06077757553469857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02133839152914717</v>
+        <v>0.01723988944196707</v>
       </c>
       <c r="C7">
-        <v>-0.0471462552885715</v>
+        <v>0.03981664249286564</v>
       </c>
       <c r="D7">
-        <v>-0.01045868609833049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03216476563914941</v>
+      </c>
+      <c r="E7">
+        <v>0.06068161151656797</v>
+      </c>
+      <c r="F7">
+        <v>-0.09276213990775692</v>
+      </c>
+      <c r="G7">
+        <v>0.06910581316717714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005451106269258359</v>
+        <v>0.002517152408738476</v>
       </c>
       <c r="C8">
-        <v>-0.03540154132022044</v>
+        <v>0.03165839091406416</v>
       </c>
       <c r="D8">
-        <v>0.02518448268868396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02945786770493109</v>
+      </c>
+      <c r="E8">
+        <v>0.05782752562210699</v>
+      </c>
+      <c r="F8">
+        <v>-0.0318507316681974</v>
+      </c>
+      <c r="G8">
+        <v>0.03091471761893427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03295990336584657</v>
+        <v>0.0365443926023875</v>
       </c>
       <c r="C9">
-        <v>-0.04972597438168192</v>
+        <v>0.05243100621712478</v>
       </c>
       <c r="D9">
-        <v>0.01196261634800184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0359397569202647</v>
+      </c>
+      <c r="E9">
+        <v>0.0708214256513692</v>
+      </c>
+      <c r="F9">
+        <v>-0.07219381386799581</v>
+      </c>
+      <c r="G9">
+        <v>0.0671111671538154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08237055954351166</v>
+        <v>0.1055205708204107</v>
       </c>
       <c r="C10">
-        <v>0.1876513097700561</v>
+        <v>-0.1950878618804101</v>
       </c>
       <c r="D10">
-        <v>-0.009833541739835219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01418918533313567</v>
+      </c>
+      <c r="E10">
+        <v>0.04068636156292028</v>
+      </c>
+      <c r="F10">
+        <v>-0.02558242461271179</v>
+      </c>
+      <c r="G10">
+        <v>0.02630249638925085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04044769819260761</v>
+        <v>0.03572832071202099</v>
       </c>
       <c r="C11">
-        <v>-0.05338533255566991</v>
+        <v>0.04916633511603006</v>
       </c>
       <c r="D11">
-        <v>0.009842071000657614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02997734993432686</v>
+      </c>
+      <c r="E11">
+        <v>0.02419117176280778</v>
+      </c>
+      <c r="F11">
+        <v>-0.05607832626946556</v>
+      </c>
+      <c r="G11">
+        <v>0.05307650417265655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0422588268178378</v>
+        <v>0.03762899588669861</v>
       </c>
       <c r="C12">
-        <v>-0.04971563877569624</v>
+        <v>0.04679295383961587</v>
       </c>
       <c r="D12">
-        <v>0.0007853189998402618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02405981863898918</v>
+      </c>
+      <c r="E12">
+        <v>0.03267195629310599</v>
+      </c>
+      <c r="F12">
+        <v>-0.05773956723770263</v>
+      </c>
+      <c r="G12">
+        <v>0.0498579182783174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01289368941932363</v>
+        <v>0.01015340407962409</v>
       </c>
       <c r="C13">
-        <v>-0.05525384521514724</v>
+        <v>0.04327056648090146</v>
       </c>
       <c r="D13">
-        <v>0.007019468998160342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0420673851138678</v>
+      </c>
+      <c r="E13">
+        <v>0.09542144247864412</v>
+      </c>
+      <c r="F13">
+        <v>-0.0824334315853707</v>
+      </c>
+      <c r="G13">
+        <v>0.0757029505136118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006777735918223802</v>
+        <v>0.003728226769662184</v>
       </c>
       <c r="C14">
-        <v>-0.04313024431397771</v>
+        <v>0.03423967375094285</v>
       </c>
       <c r="D14">
-        <v>-0.01250880475041824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02218090152666663</v>
+      </c>
+      <c r="E14">
+        <v>0.04898662445820329</v>
+      </c>
+      <c r="F14">
+        <v>-0.09260056951880669</v>
+      </c>
+      <c r="G14">
+        <v>0.05459770926168429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002750312285280004</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005168022913936531</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007267124333636637</v>
+      </c>
+      <c r="E15">
+        <v>0.00420339107079608</v>
+      </c>
+      <c r="F15">
+        <v>-0.006208837159815918</v>
+      </c>
+      <c r="G15">
+        <v>0.004422831144241085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03751422651764851</v>
+        <v>0.03365197029444512</v>
       </c>
       <c r="C16">
-        <v>-0.05068472743412027</v>
+        <v>0.04587966621407195</v>
       </c>
       <c r="D16">
-        <v>0.00506644701165556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02355509981672665</v>
+      </c>
+      <c r="E16">
+        <v>0.0391623827021569</v>
+      </c>
+      <c r="F16">
+        <v>-0.06216811866013064</v>
+      </c>
+      <c r="G16">
+        <v>0.03896124379969455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02104940835733168</v>
+        <v>0.01581165378565084</v>
       </c>
       <c r="C19">
-        <v>-0.06460953034191985</v>
+        <v>0.04636178815459913</v>
       </c>
       <c r="D19">
-        <v>0.0894826877330578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08778016527124362</v>
+      </c>
+      <c r="E19">
+        <v>0.1113786147172677</v>
+      </c>
+      <c r="F19">
+        <v>-0.07780284545846496</v>
+      </c>
+      <c r="G19">
+        <v>0.02438488239083674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01589364461406788</v>
+        <v>0.01255036106538385</v>
       </c>
       <c r="C20">
-        <v>-0.04866228957317952</v>
+        <v>0.03925288665497793</v>
       </c>
       <c r="D20">
-        <v>0.007449194419058378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02985767823744062</v>
+      </c>
+      <c r="E20">
+        <v>0.07586536204817754</v>
+      </c>
+      <c r="F20">
+        <v>-0.06847726378976264</v>
+      </c>
+      <c r="G20">
+        <v>0.0502987983129586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009239525171977883</v>
+        <v>0.008578759354101961</v>
       </c>
       <c r="C21">
-        <v>-0.05145969847581197</v>
+        <v>0.04220241091412872</v>
       </c>
       <c r="D21">
-        <v>0.03631022589051435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05604671030658773</v>
+      </c>
+      <c r="E21">
+        <v>0.1162598223532233</v>
+      </c>
+      <c r="F21">
+        <v>-0.1086340949905224</v>
+      </c>
+      <c r="G21">
+        <v>0.07734632403152755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001004465654917027</v>
+        <v>0.002276296694965816</v>
       </c>
       <c r="C22">
-        <v>-0.0006905946924374379</v>
+        <v>0.02653924356374619</v>
       </c>
       <c r="D22">
-        <v>0.002374335571235627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04241983641127604</v>
+      </c>
+      <c r="E22">
+        <v>0.0406525572944086</v>
+      </c>
+      <c r="F22">
+        <v>0.0007845129347457195</v>
+      </c>
+      <c r="G22">
+        <v>0.05256208190834667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001010103314291075</v>
+        <v>0.002354351662697631</v>
       </c>
       <c r="C23">
-        <v>-0.0006907750425548553</v>
+        <v>0.02669220782534948</v>
       </c>
       <c r="D23">
-        <v>0.002380067054709937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04200942383092626</v>
+      </c>
+      <c r="E23">
+        <v>0.04090536258683831</v>
+      </c>
+      <c r="F23">
+        <v>0.001048701108515127</v>
+      </c>
+      <c r="G23">
+        <v>0.05263111372034693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03443910463750761</v>
+        <v>0.03363015649104531</v>
       </c>
       <c r="C24">
-        <v>-0.05161763085999358</v>
+        <v>0.05317212037650058</v>
       </c>
       <c r="D24">
-        <v>0.005642135005470036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02340028926449962</v>
+      </c>
+      <c r="E24">
+        <v>0.03964885667025832</v>
+      </c>
+      <c r="F24">
+        <v>-0.06558091566809301</v>
+      </c>
+      <c r="G24">
+        <v>0.04975691184903434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04742405794695626</v>
+        <v>0.04288235331593482</v>
       </c>
       <c r="C25">
-        <v>-0.06305871249147964</v>
+        <v>0.05731609662217805</v>
       </c>
       <c r="D25">
-        <v>-0.004396438871051133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02259822742289289</v>
+      </c>
+      <c r="E25">
+        <v>0.02961214822043088</v>
+      </c>
+      <c r="F25">
+        <v>-0.06035268446356434</v>
+      </c>
+      <c r="G25">
+        <v>0.06533612073249215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01534970556930165</v>
+        <v>0.0142484121576435</v>
       </c>
       <c r="C26">
-        <v>-0.01885691635616801</v>
+        <v>0.01835301713696685</v>
       </c>
       <c r="D26">
-        <v>0.000452042011637524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02219996700845992</v>
+      </c>
+      <c r="E26">
+        <v>0.04939712450660095</v>
+      </c>
+      <c r="F26">
+        <v>-0.06853255793451242</v>
+      </c>
+      <c r="G26">
+        <v>0.0276580364741655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09664465773635762</v>
+        <v>0.1404680233083841</v>
       </c>
       <c r="C28">
-        <v>0.2421631285637897</v>
+        <v>-0.248551438239745</v>
       </c>
       <c r="D28">
-        <v>-0.009479988210090473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02917487769245691</v>
+      </c>
+      <c r="E28">
+        <v>0.05592803513882828</v>
+      </c>
+      <c r="F28">
+        <v>-0.04154251661393298</v>
+      </c>
+      <c r="G28">
+        <v>0.0463313448657929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006065362529819285</v>
+        <v>0.004525313574043053</v>
       </c>
       <c r="C29">
-        <v>-0.03508685989951686</v>
+        <v>0.03053941106889448</v>
       </c>
       <c r="D29">
-        <v>-0.01644198586847623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0160540843836208</v>
+      </c>
+      <c r="E29">
+        <v>0.04733832035093646</v>
+      </c>
+      <c r="F29">
+        <v>-0.08162391089601446</v>
+      </c>
+      <c r="G29">
+        <v>0.06331608736105708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04397664365131612</v>
+        <v>0.03971300311085288</v>
       </c>
       <c r="C30">
-        <v>-0.05472876129339838</v>
+        <v>0.05751467436997055</v>
       </c>
       <c r="D30">
-        <v>0.06554644528838136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09620141650876995</v>
+      </c>
+      <c r="E30">
+        <v>0.07664769202475609</v>
+      </c>
+      <c r="F30">
+        <v>-0.08504644510471292</v>
+      </c>
+      <c r="G30">
+        <v>0.03962193475979038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05773323184187408</v>
+        <v>0.0563447607368289</v>
       </c>
       <c r="C31">
-        <v>-0.04595265548791898</v>
+        <v>0.06183531874820163</v>
       </c>
       <c r="D31">
-        <v>-0.03475884620573741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0162089217007712</v>
+      </c>
+      <c r="E31">
+        <v>0.06502632307188591</v>
+      </c>
+      <c r="F31">
+        <v>-0.04523574940045208</v>
+      </c>
+      <c r="G31">
+        <v>0.07859951468922084</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001124022598008738</v>
+        <v>0.004970112575148577</v>
       </c>
       <c r="C32">
-        <v>-0.04050944440057089</v>
+        <v>0.03346451880867506</v>
       </c>
       <c r="D32">
-        <v>0.04658971486397205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05283363413913998</v>
+      </c>
+      <c r="E32">
+        <v>0.05765481531284392</v>
+      </c>
+      <c r="F32">
+        <v>-0.07117770615582623</v>
+      </c>
+      <c r="G32">
+        <v>0.03214068893411675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02946842495578091</v>
+        <v>0.02466913219252999</v>
       </c>
       <c r="C33">
-        <v>-0.06321714941320307</v>
+        <v>0.05535747500627401</v>
       </c>
       <c r="D33">
-        <v>0.03701717004934859</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06896994608764312</v>
+      </c>
+      <c r="E33">
+        <v>0.08900943160793366</v>
+      </c>
+      <c r="F33">
+        <v>-0.09594268849597402</v>
+      </c>
+      <c r="G33">
+        <v>0.07730587836866916</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0443951100111647</v>
+        <v>0.03988610399297386</v>
       </c>
       <c r="C34">
-        <v>-0.06821370818560919</v>
+        <v>0.06537162813911319</v>
       </c>
       <c r="D34">
-        <v>0.01280652143500371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03617651974895315</v>
+      </c>
+      <c r="E34">
+        <v>0.01232515946059487</v>
+      </c>
+      <c r="F34">
+        <v>-0.06773086386530865</v>
+      </c>
+      <c r="G34">
+        <v>0.05094981946865209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01596683653024897</v>
+        <v>0.01383564394638544</v>
       </c>
       <c r="C36">
-        <v>-0.01801663156182631</v>
+        <v>0.0141220990806075</v>
       </c>
       <c r="D36">
-        <v>-0.005325822622859321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02126534711180963</v>
+      </c>
+      <c r="E36">
+        <v>0.05700344978167</v>
+      </c>
+      <c r="F36">
+        <v>-0.06348910674324845</v>
+      </c>
+      <c r="G36">
+        <v>0.04850775332590261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02921821720683595</v>
+        <v>0.02270604578912908</v>
       </c>
       <c r="C38">
-        <v>-0.03062069864828084</v>
+        <v>0.02398647293418475</v>
       </c>
       <c r="D38">
-        <v>-0.0157326760371833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01900964449284497</v>
+      </c>
+      <c r="E38">
+        <v>0.0486688275808379</v>
+      </c>
+      <c r="F38">
+        <v>-0.05105980416491126</v>
+      </c>
+      <c r="G38">
+        <v>0.03263256458061498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04477761499962453</v>
+        <v>0.03877000742145295</v>
       </c>
       <c r="C39">
-        <v>-0.06678530941438993</v>
+        <v>0.06501924511444626</v>
       </c>
       <c r="D39">
-        <v>0.01418829970659906</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04747735278226232</v>
+      </c>
+      <c r="E39">
+        <v>0.04559766761177766</v>
+      </c>
+      <c r="F39">
+        <v>-0.08561629403097494</v>
+      </c>
+      <c r="G39">
+        <v>0.03803630784113031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01255664804816435</v>
+        <v>0.01278096261183424</v>
       </c>
       <c r="C40">
-        <v>-0.05214963529486716</v>
+        <v>0.03791125759014728</v>
       </c>
       <c r="D40">
-        <v>0.01371317195155169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02738857009434873</v>
+      </c>
+      <c r="E40">
+        <v>0.08199258568515568</v>
+      </c>
+      <c r="F40">
+        <v>-0.05635719336875362</v>
+      </c>
+      <c r="G40">
+        <v>0.08813018327038397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02227853490807909</v>
+        <v>0.019101560708133</v>
       </c>
       <c r="C41">
-        <v>-0.01504991960444184</v>
+        <v>0.01089542699973227</v>
       </c>
       <c r="D41">
-        <v>-0.0002397574727863248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01418825634265751</v>
+      </c>
+      <c r="E41">
+        <v>0.05783896499723257</v>
+      </c>
+      <c r="F41">
+        <v>-0.05840951145334009</v>
+      </c>
+      <c r="G41">
+        <v>0.04053453351891736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03958481356997244</v>
+        <v>0.02900545226979978</v>
       </c>
       <c r="C43">
-        <v>-0.03583959904811947</v>
+        <v>0.02561014912292098</v>
       </c>
       <c r="D43">
-        <v>0.02585620908312086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04097834438838031</v>
+      </c>
+      <c r="E43">
+        <v>0.07366469546320363</v>
+      </c>
+      <c r="F43">
+        <v>-0.05955128772886776</v>
+      </c>
+      <c r="G43">
+        <v>0.0651494848742957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01227177236128726</v>
+        <v>0.01363624750064932</v>
       </c>
       <c r="C44">
-        <v>-0.06822877719202321</v>
+        <v>0.04858497721933056</v>
       </c>
       <c r="D44">
-        <v>0.006695898503846871</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03013243958275189</v>
+      </c>
+      <c r="E44">
+        <v>0.08661526406509001</v>
+      </c>
+      <c r="F44">
+        <v>-0.0698200360101522</v>
+      </c>
+      <c r="G44">
+        <v>0.03021019192651141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007020610165990956</v>
+        <v>0.00795506724352508</v>
       </c>
       <c r="C46">
-        <v>-0.03079301561467522</v>
+        <v>0.03042998500968546</v>
       </c>
       <c r="D46">
-        <v>-0.01838031679604158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009633687146404567</v>
+      </c>
+      <c r="E46">
+        <v>0.05569357734830628</v>
+      </c>
+      <c r="F46">
+        <v>-0.09563131524545974</v>
+      </c>
+      <c r="G46">
+        <v>0.06103418134448297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08361005178076618</v>
+        <v>0.08757282105456342</v>
       </c>
       <c r="C47">
-        <v>-0.07271181571393168</v>
+        <v>0.08272133985888588</v>
       </c>
       <c r="D47">
-        <v>-0.02977493834544646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02243093494250048</v>
+      </c>
+      <c r="E47">
+        <v>0.06724347340598022</v>
+      </c>
+      <c r="F47">
+        <v>-0.04285892915250744</v>
+      </c>
+      <c r="G47">
+        <v>0.07721686571953164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0182758999459442</v>
+        <v>0.01621652698250643</v>
       </c>
       <c r="C48">
-        <v>-0.01629984448960407</v>
+        <v>0.01702239440903831</v>
       </c>
       <c r="D48">
-        <v>-0.01944067686022888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009003515050279543</v>
+      </c>
+      <c r="E48">
+        <v>0.06675385816525498</v>
+      </c>
+      <c r="F48">
+        <v>-0.0811611611995607</v>
+      </c>
+      <c r="G48">
+        <v>0.05626075783708426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08030142145444825</v>
+        <v>0.06984375159872559</v>
       </c>
       <c r="C50">
-        <v>-0.08390145101854746</v>
+        <v>0.076899903386297</v>
       </c>
       <c r="D50">
-        <v>-0.03121386756140598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00792214789813637</v>
+      </c>
+      <c r="E50">
+        <v>0.07459985927663665</v>
+      </c>
+      <c r="F50">
+        <v>-0.02069638741231376</v>
+      </c>
+      <c r="G50">
+        <v>0.09351798050568914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0145342320173</v>
+        <v>0.009137148741860977</v>
       </c>
       <c r="C51">
-        <v>-0.04993418769610899</v>
+        <v>0.0322714917469172</v>
       </c>
       <c r="D51">
-        <v>0.03011376903596392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0512896798657466</v>
+      </c>
+      <c r="E51">
+        <v>0.04816710595372123</v>
+      </c>
+      <c r="F51">
+        <v>-0.08154723564676694</v>
+      </c>
+      <c r="G51">
+        <v>0.03549242123438703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08248814561471453</v>
+        <v>0.09470609327739438</v>
       </c>
       <c r="C53">
-        <v>-0.07847136719126054</v>
+        <v>0.08781560167233408</v>
       </c>
       <c r="D53">
-        <v>-0.05212292798825471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05548991672551367</v>
+      </c>
+      <c r="E53">
+        <v>0.06069220519745539</v>
+      </c>
+      <c r="F53">
+        <v>-0.04056199348266736</v>
+      </c>
+      <c r="G53">
+        <v>0.07835721690891961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03239969986380143</v>
+        <v>0.02709520704403455</v>
       </c>
       <c r="C54">
-        <v>-0.03859078508918939</v>
+        <v>0.03287670853669229</v>
       </c>
       <c r="D54">
-        <v>-0.002688297093060826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02380498284438376</v>
+      </c>
+      <c r="E54">
+        <v>0.05530162040917801</v>
+      </c>
+      <c r="F54">
+        <v>-0.08556692435447587</v>
+      </c>
+      <c r="G54">
+        <v>0.06158722189536035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07560307575144741</v>
+        <v>0.08593912373943526</v>
       </c>
       <c r="C55">
-        <v>-0.05863970253713638</v>
+        <v>0.07072273499554281</v>
       </c>
       <c r="D55">
-        <v>-0.05683200976378249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05813741415451133</v>
+      </c>
+      <c r="E55">
+        <v>0.04334865228010524</v>
+      </c>
+      <c r="F55">
+        <v>-0.02228267151486596</v>
+      </c>
+      <c r="G55">
+        <v>0.05958323077086623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1467372359480734</v>
+        <v>0.1484789171706992</v>
       </c>
       <c r="C56">
-        <v>-0.09458345383595482</v>
+        <v>0.1080366884222124</v>
       </c>
       <c r="D56">
-        <v>-0.04914686606308977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05447975346280629</v>
+      </c>
+      <c r="E56">
+        <v>0.04182211708341713</v>
+      </c>
+      <c r="F56">
+        <v>0.002912492755262561</v>
+      </c>
+      <c r="G56">
+        <v>0.04172596377580393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04662687905897037</v>
+        <v>0.02813579191960723</v>
       </c>
       <c r="C58">
-        <v>-0.0229559289670515</v>
+        <v>0.0233311363076391</v>
       </c>
       <c r="D58">
-        <v>0.7031451792418805</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3749037584758571</v>
+      </c>
+      <c r="E58">
+        <v>0.6657148795501242</v>
+      </c>
+      <c r="F58">
+        <v>0.4850767567914546</v>
+      </c>
+      <c r="G58">
+        <v>-0.318482023470906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1350941752523962</v>
+        <v>0.1473872757875616</v>
       </c>
       <c r="C59">
-        <v>0.1956023893753187</v>
+        <v>-0.1859975863183101</v>
       </c>
       <c r="D59">
-        <v>0.02346924632083981</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02581549765883808</v>
+      </c>
+      <c r="E59">
+        <v>0.02835445896057023</v>
+      </c>
+      <c r="F59">
+        <v>-0.02855887059237475</v>
+      </c>
+      <c r="G59">
+        <v>-0.02036691090138817</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3078976674291035</v>
+        <v>0.2787675620114515</v>
       </c>
       <c r="C60">
-        <v>-0.1082672562415572</v>
+        <v>0.1082053153403814</v>
       </c>
       <c r="D60">
-        <v>0.1593247040700488</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2653567541512837</v>
+      </c>
+      <c r="E60">
+        <v>-0.2383594458042236</v>
+      </c>
+      <c r="F60">
+        <v>0.07613056681793794</v>
+      </c>
+      <c r="G60">
+        <v>0.0379184550839169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04276318145941075</v>
+        <v>0.03999376034995785</v>
       </c>
       <c r="C61">
-        <v>-0.06459641621527804</v>
+        <v>0.0610947756655194</v>
       </c>
       <c r="D61">
-        <v>0.009627861643253306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03886748107949668</v>
+      </c>
+      <c r="E61">
+        <v>0.04837415767753282</v>
+      </c>
+      <c r="F61">
+        <v>-0.06808809817442131</v>
+      </c>
+      <c r="G61">
+        <v>0.05670891280604628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01545622838552764</v>
+        <v>0.01445396923822766</v>
       </c>
       <c r="C63">
-        <v>-0.03508109730082574</v>
+        <v>0.0321099965092714</v>
       </c>
       <c r="D63">
-        <v>-0.01739893623167502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01467380268067382</v>
+      </c>
+      <c r="E63">
+        <v>0.05925368138180895</v>
+      </c>
+      <c r="F63">
+        <v>-0.05358100136616058</v>
+      </c>
+      <c r="G63">
+        <v>0.06497352687450703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04901378918386794</v>
+        <v>0.05459874809337842</v>
       </c>
       <c r="C64">
-        <v>-0.04824685786171541</v>
+        <v>0.05826143434280041</v>
       </c>
       <c r="D64">
-        <v>-0.002187157956017506</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.003150519020734887</v>
+      </c>
+      <c r="E64">
+        <v>0.0347242073243484</v>
+      </c>
+      <c r="F64">
+        <v>-0.07219035485146921</v>
+      </c>
+      <c r="G64">
+        <v>0.0494081232677366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0825709402188614</v>
+        <v>0.06676097398657704</v>
       </c>
       <c r="C65">
-        <v>-0.02919300536164392</v>
+        <v>0.0283014621384789</v>
       </c>
       <c r="D65">
-        <v>0.05916957995576155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08576805633761907</v>
+      </c>
+      <c r="E65">
+        <v>0.05548840066193002</v>
+      </c>
+      <c r="F65">
+        <v>-0.01005762557688325</v>
+      </c>
+      <c r="G65">
+        <v>0.0200953988095477</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05984999771192858</v>
+        <v>0.05006744883762441</v>
       </c>
       <c r="C66">
-        <v>-0.0922109912893545</v>
+        <v>0.0837489440143039</v>
       </c>
       <c r="D66">
-        <v>0.03430142599882934</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07221913773061872</v>
+      </c>
+      <c r="E66">
+        <v>0.0542055430221878</v>
+      </c>
+      <c r="F66">
+        <v>-0.08205273746707786</v>
+      </c>
+      <c r="G66">
+        <v>0.05506692090106096</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05104047555655102</v>
+        <v>0.04450944609768086</v>
       </c>
       <c r="C67">
-        <v>-0.03218161161981765</v>
+        <v>0.0293559840585717</v>
       </c>
       <c r="D67">
-        <v>-0.02255517560055847</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003597981235640888</v>
+      </c>
+      <c r="E67">
+        <v>0.02572647779572087</v>
+      </c>
+      <c r="F67">
+        <v>-0.03729386847981126</v>
+      </c>
+      <c r="G67">
+        <v>0.02859913853506887</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.133874341947422</v>
+        <v>0.1554763156317212</v>
       </c>
       <c r="C68">
-        <v>0.2778841850600264</v>
+        <v>-0.2422824744294735</v>
       </c>
       <c r="D68">
-        <v>-0.007369571928110961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0160937992766138</v>
+      </c>
+      <c r="E68">
+        <v>0.03880925987635544</v>
+      </c>
+      <c r="F68">
+        <v>-0.01139530896145305</v>
+      </c>
+      <c r="G68">
+        <v>0.0298494916412097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09064992877403819</v>
+        <v>0.08625106069944759</v>
       </c>
       <c r="C69">
-        <v>-0.07325146511920202</v>
+        <v>0.09024755768433455</v>
       </c>
       <c r="D69">
-        <v>-0.04486422616101453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01321091932903967</v>
+      </c>
+      <c r="E69">
+        <v>0.05287009325379249</v>
+      </c>
+      <c r="F69">
+        <v>-0.0699390990632601</v>
+      </c>
+      <c r="G69">
+        <v>0.06893486500181042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1220694940026069</v>
+        <v>0.1477122196365418</v>
       </c>
       <c r="C71">
-        <v>0.2508166098664479</v>
+        <v>-0.2377204084058757</v>
       </c>
       <c r="D71">
-        <v>0.01407327415514133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.001074910445568388</v>
+      </c>
+      <c r="E71">
+        <v>0.05971131622904836</v>
+      </c>
+      <c r="F71">
+        <v>-0.03031833005982508</v>
+      </c>
+      <c r="G71">
+        <v>0.0583104989938891</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09055817390985023</v>
+        <v>0.0990917938869922</v>
       </c>
       <c r="C72">
-        <v>-0.05831887728786795</v>
+        <v>0.05959109983896061</v>
       </c>
       <c r="D72">
-        <v>0.001551376964761729</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02570386616863043</v>
+      </c>
+      <c r="E72">
+        <v>0.02571708764618423</v>
+      </c>
+      <c r="F72">
+        <v>-0.0474246962979786</v>
+      </c>
+      <c r="G72">
+        <v>0.0641980656946861</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.403620153660841</v>
+        <v>0.3418497752412994</v>
       </c>
       <c r="C73">
-        <v>-0.05157966493045151</v>
+        <v>0.07269775656285662</v>
       </c>
       <c r="D73">
-        <v>0.3841402876505534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5212812776055491</v>
+      </c>
+      <c r="E73">
+        <v>-0.4375924076618276</v>
+      </c>
+      <c r="F73">
+        <v>0.2297199586394933</v>
+      </c>
+      <c r="G73">
+        <v>0.03026050283519569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.103933855096742</v>
+        <v>0.1089408827915352</v>
       </c>
       <c r="C74">
-        <v>-0.09636654067100425</v>
+        <v>0.09630698362683822</v>
       </c>
       <c r="D74">
-        <v>-0.03049655545889566</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04382655963274671</v>
+      </c>
+      <c r="E74">
+        <v>0.06224224998153538</v>
+      </c>
+      <c r="F74">
+        <v>0.002209563665402546</v>
+      </c>
+      <c r="G74">
+        <v>0.06699701608630947</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2524546460497533</v>
+        <v>0.2563746331141997</v>
       </c>
       <c r="C75">
-        <v>-0.106475090758576</v>
+        <v>0.1340355516428613</v>
       </c>
       <c r="D75">
-        <v>-0.1170006900194973</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1480088707502663</v>
+      </c>
+      <c r="E75">
+        <v>0.04358105261552379</v>
+      </c>
+      <c r="F75">
+        <v>0.04614278594209468</v>
+      </c>
+      <c r="G75">
+        <v>0.01011518469199294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1127085494883896</v>
+        <v>0.1266779050955909</v>
       </c>
       <c r="C76">
-        <v>-0.08280110024088554</v>
+        <v>0.09548988963088929</v>
       </c>
       <c r="D76">
-        <v>-0.06023223439907958</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07478571241806246</v>
+      </c>
+      <c r="E76">
+        <v>0.06662412071715418</v>
+      </c>
+      <c r="F76">
+        <v>-0.02053927657106464</v>
+      </c>
+      <c r="G76">
+        <v>0.0557425035588241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07618354675510025</v>
+        <v>0.06220124891876164</v>
       </c>
       <c r="C77">
-        <v>-0.0557369855684897</v>
+        <v>0.06486919746830755</v>
       </c>
       <c r="D77">
-        <v>0.04938535579295044</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05119422346125368</v>
+      </c>
+      <c r="E77">
+        <v>0.09893982763332372</v>
+      </c>
+      <c r="F77">
+        <v>-0.1580771091007923</v>
+      </c>
+      <c r="G77">
+        <v>-0.1074835791367337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04772533369349638</v>
+        <v>0.04427950440602296</v>
       </c>
       <c r="C78">
-        <v>-0.04802495912873531</v>
+        <v>0.05695245379055649</v>
       </c>
       <c r="D78">
-        <v>0.01696114945665272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05680110316189819</v>
+      </c>
+      <c r="E78">
+        <v>0.05536297949339757</v>
+      </c>
+      <c r="F78">
+        <v>-0.07636615981418683</v>
+      </c>
+      <c r="G78">
+        <v>0.04838584625005937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02935335155371485</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0459377212495907</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07502817031986068</v>
+      </c>
+      <c r="E79">
+        <v>0.05939450150513993</v>
+      </c>
+      <c r="F79">
+        <v>0.01116903118903524</v>
+      </c>
+      <c r="G79">
+        <v>0.06128563958192654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03848633112978887</v>
+        <v>0.02986592486362819</v>
       </c>
       <c r="C80">
-        <v>-0.04989426885830422</v>
+        <v>0.05104385163166733</v>
       </c>
       <c r="D80">
-        <v>0.02223571654185377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03629794787779093</v>
+      </c>
+      <c r="E80">
+        <v>0.01865485187749795</v>
+      </c>
+      <c r="F80">
+        <v>-0.04699392811975715</v>
+      </c>
+      <c r="G80">
+        <v>-0.02316833158072231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1381013283334222</v>
+        <v>0.1380775169117923</v>
       </c>
       <c r="C81">
-        <v>-0.07755980457877382</v>
+        <v>0.09555587089694113</v>
       </c>
       <c r="D81">
-        <v>-0.08458044349303331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1188895189804169</v>
+      </c>
+      <c r="E81">
+        <v>0.06745341720819831</v>
+      </c>
+      <c r="F81">
+        <v>0.02743493777576329</v>
+      </c>
+      <c r="G81">
+        <v>0.02167440383548476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.174017304189494</v>
+        <v>0.2109810813702623</v>
       </c>
       <c r="C82">
-        <v>-0.09508498042374749</v>
+        <v>0.1587617512069935</v>
       </c>
       <c r="D82">
-        <v>-0.1810970424797472</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2465898751736324</v>
+      </c>
+      <c r="E82">
+        <v>-0.02283317745899864</v>
+      </c>
+      <c r="F82">
+        <v>-0.05485533053019595</v>
+      </c>
+      <c r="G82">
+        <v>0.04522704313172315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03924136235848613</v>
+        <v>0.02680722223869873</v>
       </c>
       <c r="C83">
-        <v>-0.03050901267781881</v>
+        <v>0.04314344444159524</v>
       </c>
       <c r="D83">
-        <v>0.0310313984822927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02928406118680064</v>
+      </c>
+      <c r="E83">
+        <v>0.02540564945689625</v>
+      </c>
+      <c r="F83">
+        <v>-0.04514321470323505</v>
+      </c>
+      <c r="G83">
+        <v>-0.002361843724968068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>7.88019349625056e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007756558468511355</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001190663986851273</v>
+      </c>
+      <c r="E84">
+        <v>0.0007822308246547118</v>
+      </c>
+      <c r="F84">
+        <v>-0.001057577119449094</v>
+      </c>
+      <c r="G84">
+        <v>0.0005953448742353517</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2198356389772269</v>
+        <v>0.2025831396089079</v>
       </c>
       <c r="C85">
-        <v>-0.1020813398300649</v>
+        <v>0.1169479585136051</v>
       </c>
       <c r="D85">
-        <v>-0.14767072817353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1150658383340758</v>
+      </c>
+      <c r="E85">
+        <v>-0.0271331715060754</v>
+      </c>
+      <c r="F85">
+        <v>0.09190998039580503</v>
+      </c>
+      <c r="G85">
+        <v>0.05738437354400433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006062033263829424</v>
+        <v>0.008603740380990281</v>
       </c>
       <c r="C86">
-        <v>-0.02744919718181042</v>
+        <v>0.02019787421085902</v>
       </c>
       <c r="D86">
-        <v>0.04302771821163834</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05607505680872697</v>
+      </c>
+      <c r="E86">
+        <v>0.0730783102902583</v>
+      </c>
+      <c r="F86">
+        <v>-0.1148247461400819</v>
+      </c>
+      <c r="G86">
+        <v>0.05503718748370608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02407675486013757</v>
+        <v>0.02405559378301825</v>
       </c>
       <c r="C87">
-        <v>-0.006398581238483323</v>
+        <v>0.01308282446733316</v>
       </c>
       <c r="D87">
-        <v>0.08178790034134288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07750812970653899</v>
+      </c>
+      <c r="E87">
+        <v>0.126407949664803</v>
+      </c>
+      <c r="F87">
+        <v>-0.08333798511060805</v>
+      </c>
+      <c r="G87">
+        <v>2.040827206218023e-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.104500347056071</v>
+        <v>0.09071107616727431</v>
       </c>
       <c r="C88">
-        <v>-0.07519447744004133</v>
+        <v>0.06388511403715676</v>
       </c>
       <c r="D88">
-        <v>-0.02756446816189109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.003532680909372226</v>
+      </c>
+      <c r="E88">
+        <v>0.04965914757321216</v>
+      </c>
+      <c r="F88">
+        <v>-0.07695692787377999</v>
+      </c>
+      <c r="G88">
+        <v>0.0216662254897538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1909124163045208</v>
+        <v>0.2249042284991171</v>
       </c>
       <c r="C89">
-        <v>0.3713743089382709</v>
+        <v>-0.3752406751008893</v>
       </c>
       <c r="D89">
-        <v>-0.03080800707549506</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02691962644154584</v>
+      </c>
+      <c r="E89">
+        <v>0.06529667195302816</v>
+      </c>
+      <c r="F89">
+        <v>-0.09203941800224767</v>
+      </c>
+      <c r="G89">
+        <v>-0.02471283882163694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1828395492865668</v>
+        <v>0.2042611129094531</v>
       </c>
       <c r="C90">
-        <v>0.3313602585469526</v>
+        <v>-0.307867911723021</v>
       </c>
       <c r="D90">
-        <v>-0.03322215335125656</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02697028309668881</v>
+      </c>
+      <c r="E90">
+        <v>0.066480411486388</v>
+      </c>
+      <c r="F90">
+        <v>-0.03874322437278829</v>
+      </c>
+      <c r="G90">
+        <v>0.00524997328044855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.18839802043499</v>
+        <v>0.1854621256377489</v>
       </c>
       <c r="C91">
-        <v>-0.1287991436266941</v>
+        <v>0.1455815010827845</v>
       </c>
       <c r="D91">
-        <v>-0.1079950266265088</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.126017356062992</v>
+      </c>
+      <c r="E91">
+        <v>0.04674313102066251</v>
+      </c>
+      <c r="F91">
+        <v>0.01234755613637454</v>
+      </c>
+      <c r="G91">
+        <v>0.02517668465896438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.166982589806848</v>
+        <v>0.1854059787413915</v>
       </c>
       <c r="C92">
-        <v>0.281271785756013</v>
+        <v>-0.2870596201599417</v>
       </c>
       <c r="D92">
-        <v>-0.03180269536977905</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03072002349800187</v>
+      </c>
+      <c r="E92">
+        <v>0.06940058484600253</v>
+      </c>
+      <c r="F92">
+        <v>-0.07465538113947374</v>
+      </c>
+      <c r="G92">
+        <v>0.01647110802327342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2051586586977602</v>
+        <v>0.2268570715741964</v>
       </c>
       <c r="C93">
-        <v>0.3352480095217599</v>
+        <v>-0.3164497813374385</v>
       </c>
       <c r="D93">
-        <v>-0.03594998608623957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02298725248271904</v>
+      </c>
+      <c r="E93">
+        <v>0.04084162344263784</v>
+      </c>
+      <c r="F93">
+        <v>-0.01903602892226337</v>
+      </c>
+      <c r="G93">
+        <v>0.03726039752572521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3302071972698049</v>
+        <v>0.3343265024617868</v>
       </c>
       <c r="C94">
-        <v>-0.1592304564277088</v>
+        <v>0.1946368339473526</v>
       </c>
       <c r="D94">
-        <v>-0.3562716271816966</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4323406487159208</v>
+      </c>
+      <c r="E94">
+        <v>0.002034521769344413</v>
+      </c>
+      <c r="F94">
+        <v>0.2455783483612506</v>
+      </c>
+      <c r="G94">
+        <v>-0.4211044424539294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1131218511600813</v>
+        <v>0.08385017265445817</v>
       </c>
       <c r="C95">
-        <v>-0.07280601664477127</v>
+        <v>0.06496515006128387</v>
       </c>
       <c r="D95">
-        <v>0.1486295225673051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1836321028720457</v>
+      </c>
+      <c r="E95">
+        <v>-0.09172087205730436</v>
+      </c>
+      <c r="F95">
+        <v>-0.5685971405093354</v>
+      </c>
+      <c r="G95">
+        <v>-0.7075778024463936</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1955276073220376</v>
+        <v>0.1872123359075498</v>
       </c>
       <c r="C98">
-        <v>-0.0223052480295924</v>
+        <v>0.0472784102955039</v>
       </c>
       <c r="D98">
-        <v>0.1333304590937531</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2000184962128157</v>
+      </c>
+      <c r="E98">
+        <v>-0.1317163433824946</v>
+      </c>
+      <c r="F98">
+        <v>0.06175466331387101</v>
+      </c>
+      <c r="G98">
+        <v>0.08497264343024032</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005848738680862581</v>
+        <v>0.004524224973105093</v>
       </c>
       <c r="C101">
-        <v>-0.03509697570983769</v>
+        <v>0.03011623790598168</v>
       </c>
       <c r="D101">
-        <v>-0.01615733185759979</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01592575760988952</v>
+      </c>
+      <c r="E101">
+        <v>0.04801396236906027</v>
+      </c>
+      <c r="F101">
+        <v>-0.08227939889845648</v>
+      </c>
+      <c r="G101">
+        <v>0.06311114001829649</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1245400211004537</v>
+        <v>0.1258092414069496</v>
       </c>
       <c r="C102">
-        <v>-0.07102534855294672</v>
+        <v>0.1017832952507889</v>
       </c>
       <c r="D102">
-        <v>-0.04086708244352507</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05234241529097352</v>
+      </c>
+      <c r="E102">
+        <v>-0.01154059342243955</v>
+      </c>
+      <c r="F102">
+        <v>-0.01838809927087019</v>
+      </c>
+      <c r="G102">
+        <v>-3.530466387891447e-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
